--- a/程序/programme/two qubit gate/CZgate/IBM/比特频率排布/混合比特能级排布v1.1.xlsx
+++ b/程序/programme/two qubit gate/CZgate/IBM/比特频率排布/混合比特能级排布v1.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>qubit编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,14 @@
       1,2,7,8一组读取，3,4,5,6一组读取，9,10,15,16一组读取，11,12,13,14一组读取；
   </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特电容(fF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结电阻(Ω)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,14 +271,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:N18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -589,539 +597,732 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2">
         <v>6</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2">
         <v>8</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="2">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1">
         <v>9</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1">
         <v>10</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1">
         <v>11</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="4">
+      <c r="W1" s="1"/>
+      <c r="X1" s="2">
         <v>12</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2">
         <v>13</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2">
         <v>14</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2">
         <v>15</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="2">
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="1">
         <v>16</v>
       </c>
-      <c r="AG1" s="2"/>
+      <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5.45</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>5.6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>5.75</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
         <v>5.9</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>5.82</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <v>5.67</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
         <v>5.52</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
         <v>5.37</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
         <v>5.29</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
         <v>5.44</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
         <v>5.59</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
         <v>5.74</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1">
         <v>5.66</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1">
         <v>5.51</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1">
         <v>5.36</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1">
         <v>5.21</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-250</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7753</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>7370</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>7006</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>6709</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>6845</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>7215</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>7576</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>7964</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>8184</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>7779</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>7403</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>7029</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
+        <v>7221</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1">
+        <v>7601</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>7991</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
+        <v>8413</v>
+      </c>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6.96</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>6.9450000000000003</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>7.085</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>7.0149999999999997</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>6.875</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <v>7.03</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>6.89</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>6.91</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2">
-        <v>6.93</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2">
-        <v>7.07</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>6.86</v>
-      </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2">
-        <v>6.98</v>
-      </c>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2">
-        <v>6.84</v>
-      </c>
-      <c r="AG7" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>7.085</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>6.875</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="13" spans="1:33" ht="14.4" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="15" spans="1:33" ht="14.4" customHeight="1">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="101">
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:N20"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B10:AG10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B3:AG3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:AG8"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="P1:Q1"/>
@@ -1135,74 +1336,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="B13:N18"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
